--- a/python-lunch-and-learn.xlsx
+++ b/python-lunch-and-learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geoffrey.wong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F4C49-F06B-8F43-94DD-ECC02C550AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE0F66-F690-3247-A8EA-70382AE0074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10760" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="266">
   <si>
     <t>Your Name:</t>
   </si>
@@ -1326,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2196,15 +2196,9 @@
       <c r="J19" s="5">
         <v>3</v>
       </c>
-      <c r="K19" s="5">
-        <v>4</v>
-      </c>
-      <c r="L19" s="5">
-        <v>3</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3</v>
-      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="3" t="s">
         <v>112</v>
       </c>
@@ -4888,6 +4882,53 @@
         <v>99</v>
       </c>
       <c r="O76" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="5">
+        <v>4</v>
+      </c>
+      <c r="F77" s="5">
+        <v>4</v>
+      </c>
+      <c r="G77" s="5">
+        <v>4</v>
+      </c>
+      <c r="H77" s="5">
+        <v>5</v>
+      </c>
+      <c r="I77" s="5">
+        <v>5</v>
+      </c>
+      <c r="J77" s="5">
+        <v>5</v>
+      </c>
+      <c r="K77" s="5">
+        <v>5</v>
+      </c>
+      <c r="L77" s="5">
+        <v>5</v>
+      </c>
+      <c r="M77" s="5">
+        <v>5</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4977,6 +5018,7 @@
     <hyperlink ref="B74" r:id="rId72" display="mailto:wayne.lai@acme.co" xr:uid="{0C8F10CC-FE27-FE4E-B0FF-95B597526BFB}"/>
     <hyperlink ref="B75" r:id="rId73" display="mailto:wongcholam@acme.co" xr:uid="{26564CE2-D45C-2C43-8116-563681C26F81}"/>
     <hyperlink ref="B76" r:id="rId74" display="mailto:yammie.lam@acme.co" xr:uid="{55904CA9-1830-C940-B350-7178C95227F1}"/>
+    <hyperlink ref="B77" r:id="rId75" display="mailto:yammie.lam@acme.co" xr:uid="{BD743BF5-C21A-D742-A5D6-44FE818100BC}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
